--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7051,4 +7052,3892 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.9978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>190.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>135.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0701</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6547</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5546</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001296</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城转型成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>53.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10940,4 +10941,4230 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.6945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2852</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1999</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1544</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9461</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6844</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15146,7 +15147,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -15162,6 +15162,106 @@
       </c>
       <c r="H111" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.55</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15175,7 +15176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15186,17 +15187,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15206,14 +15227,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>110</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.34</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -15222,14 +15265,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>101</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.6</v>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15238,14 +15303,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.27</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -15254,13 +15341,2500 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7437</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5667</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>124</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>53.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17733,7 +17734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17744,17 +17745,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17764,14 +17785,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.18</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -17780,14 +17823,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>110</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.34</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -17796,14 +17861,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55.6</v>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -17812,14 +17899,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.27</v>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -17828,13 +17937,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>124</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>53.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18740,7 +18741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18751,17 +18752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18771,14 +18792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.21</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -18787,14 +18830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.18</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -18803,14 +18868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>110</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67.34</v>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -18819,14 +18906,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>55.6</v>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -18835,14 +18944,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.27</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -18851,13 +18982,2233 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>101</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>124</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>53.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601633-长城汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>10.65</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>4.21</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>34.18</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>67.34</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6</v>
+        <v>67.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v>29.27</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>124</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>53.55</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2933,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3939,7 +5114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6496,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10721,7 +11896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14609,7 +15784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16451,7 +17626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
